--- a/files/facturacion_14Nov24.xlsx
+++ b/files/facturacion_14Nov24.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Facturacion" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Facturacion" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,300 +860,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ARCE NATALIA ALEJANDRA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>25396075</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1232539607500</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10/10/2024</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>42.01.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>CONSULTA MEDICA</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J10" t="n">
-        <v>22294231</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>LS1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DIAZ SANTOS ANTUAN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>36745865</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1233674586502</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10/10/2024</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>42.01.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>CONSULTA MEDICA</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J11" t="n">
-        <v>22301304</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>LS1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MINGO LEDESMA MAYRA CAMILA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>27065099</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1232706509902</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10/10/2024</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>60.01.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Psicoterapia individual por sesion</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10980</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10980</v>
-      </c>
-      <c r="J12" t="n">
-        <v>22300862</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>LS1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>QUINTANA ERNESTO FIDEL</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>23011374</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1132301137400</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15/10/2024</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>42.01.01</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>CONSULTA MEDICA</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J13" t="n">
-        <v>22359319</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>LS1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CARDENAS MYRIAM LUZ</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>16015116</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1231601511601</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>16/10/2024</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>42.01.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>CONSULTA MEDICA</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J14" t="n">
-        <v>22366155</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>LS1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GARNICA JUAN RAMON</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>29782181</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1132978218100</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16/10/2024</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>42.01.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>CONSULTA MEDICA</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J15" t="n">
-        <v>22367848</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>LS1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
